--- a/Berry/Content/Files/reporte-dimmas-vs-weekly-73156.xlsx
+++ b/Berry/Content/Files/reporte-dimmas-vs-weekly-73156.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="general" sheetId="1" r:id="R81b427790fc44c8d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="general" sheetId="1" r:id="R1f3a053cf5da47ea"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -45,22 +45,22 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>4850</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>0</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>0</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>0</x:t>
+          <x:t>5650</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>1200</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>800</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>7000</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -72,22 +72,22 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>406899</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>423430</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>426119</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>452818</x:t>
+          <x:t>916221</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>929212</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>935441</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>1064886</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -99,53 +99,134 @@
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>7415</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>8988</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>26060</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>21737</x:t>
+          <x:t>35687</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>37988</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>73516</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>69937</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c t="inlineStr">
         <x:is>
+          <x:t>MNET</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>51901</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>58063</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>56901</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>87020</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WEB</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>5637</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c t="inlineStr">
+        <x:is>
           <x:t>SEBP</x:t>
         </x:is>
       </x:c>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>2588</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>62846</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>33450</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>71777</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row r="6">
+          <x:t>7637</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>179258</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>45406</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>63469</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BR</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>2540</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>2295</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>2540</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="9">
       <x:c t="inlineStr">
         <x:is>
           <x:t>SM</x:t>
